--- a/Output/28_02_2023/CON_AL258112.xlsx
+++ b/Output/28_02_2023/CON_AL258112.xlsx
@@ -31,13 +31,13 @@
     <x:t>AL258112</x:t>
   </x:si>
   <x:si>
-    <x:t>Construcción</x:t>
+    <x:t>ConstrucciónConstrucción...Interpretación...Imaginación...construccion...No se han podido cargar todos los resultadosReintentarIntentándolo de nuevo...</x:t>
   </x:si>
   <x:si>
     <x:t>CON</x:t>
   </x:si>
   <x:si>
-    <x:t>un edificio o una carretera</x:t>
+    <x:t>un edificio o camino</x:t>
   </x:si>
 </x:sst>
 </file>
